--- a/datas/Option_B/Datas_cleaned/Brazil_Energy balance matrix_cleaned.xlsx
+++ b/datas/Option_B/Datas_cleaned/Brazil_Energy balance matrix_cleaned.xlsx
@@ -142,47 +142,46 @@
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">   PRODUCTION</t>
+    <t>PRODUCTION</t>
   </si>
   <si>
-    <t xml:space="preserve">   IMPORT</t>
+    <t>IMPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">   EXPORT</t>
+    <t>EXPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">   STOCK CHANGE</t>
+    <t>STOCK CHANGE</t>
   </si>
   <si>
-    <t xml:space="preserve">   UNUSED</t>
+    <t>UNUSED</t>
   </si>
   <si>
     <t>TOTAL SUPPLY</t>
   </si>
   <si>
-    <t xml:space="preserve">   REFINERIES</t>
+    <t>REFINERIES</t>
   </si>
   <si>
-    <t xml:space="preserve">   POWER PLANTS </t>
+    <t>POWER PLANTS</t>
   </si>
   <si>
-    <t xml:space="preserve">   SELF-PRODUCERS</t>
+    <t>SELF-PRODUCERS</t>
   </si>
   <si>
-    <t xml:space="preserve">   GAS PLANTS</t>
+    <t>GAS PLANTS</t>
   </si>
   <si>
-    <t xml:space="preserve">   CHARCOAL PLANTS</t>
+    <t>CHARCOAL PLANTS</t>
   </si>
   <si>
-    <t xml:space="preserve">   COKE PLANTS AND BLAST FURNACES_x005F_x000d_
-</t>
+    <t>COKE PLANTS AND BLAST FURNACES_x005F_x000d_</t>
   </si>
   <si>
-    <t xml:space="preserve">   DISTILLERIES</t>
+    <t>DISTILLERIES</t>
   </si>
   <si>
-    <t xml:space="preserve">   OTHER CENTERS</t>
+    <t>OTHER CENTERS</t>
   </si>
   <si>
     <t>TOTAL TRANSFORMATION</t>
@@ -197,22 +196,22 @@
     <t>ADJUSTMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">   TRANSPORT </t>
+    <t>TRANSPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">   INDUSTRIAL</t>
+    <t>INDUSTRIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">   RESIDENTIAL</t>
+    <t>RESIDENTIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">   COMMERCIAL, SERVICES, PUBLIC</t>
+    <t>COMMERCIAL, SERVICES, PUBLIC</t>
   </si>
   <si>
-    <t xml:space="preserve">   AGRICULTURE, FISHING AND MINING</t>
+    <t>AGRICULTURE, FISHING AND MINING</t>
   </si>
   <si>
-    <t xml:space="preserve">   CONSTRUCTION AND OTHERS</t>
+    <t>CONSTRUCTION AND OTHERS</t>
   </si>
   <si>
     <t>ENERGY CONSUMPTION</t>
